--- a/Excel/TI/Mon_TI_2024_03_27.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_27.xlsx
@@ -2712,45 +2712,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Questionable</t>
+          <t>Day-To-Day</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="G16" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="H16" t="n">
-        <v>34.7</v>
+        <v>26.2</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -2761,39 +2765,39 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>50</v>
       </c>
       <c r="Q16" t="n">
-        <v>34</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+        <v>-1.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10</v>
+      </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2802,15 +2806,17 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v>55</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2824,12 +2830,12 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2839,17 +2845,17 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -2859,104 +2865,112 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>26.8</v>
+        <v>24.2</v>
       </c>
       <c r="G17" t="n">
-        <v>28.1</v>
+        <v>29.5</v>
       </c>
       <c r="H17" t="n">
-        <v>26.9</v>
+        <v>34.7</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="N17" t="n">
-        <v>26</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O17" t="n">
-        <v>24</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q17" t="n">
-        <v>48</v>
-      </c>
-      <c r="R17" t="n">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>55</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2970,12 +2984,12 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -2985,7 +2999,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3000,24 +3014,24 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3028,22 +3042,22 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>24.4</v>
+        <v>26.8</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="H18" t="n">
-        <v>31</v>
+        <v>26.9</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
         <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
@@ -3052,21 +3066,19 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
         <v>24</v>
       </c>
       <c r="P18" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>19</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="R18" t="n">
+        <v>28</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3074,7 +3086,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3085,12 +3097,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z18" t="n">
@@ -3123,7 +3135,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3133,17 +3145,17 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3153,66 +3165,68 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G19" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
-      </c>
-      <c r="R19" t="n">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3220,7 +3234,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3231,51 +3245,55 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB19" t="n">
-        <v>33</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD19" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3285,7 +3303,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -3295,7 +3313,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
@@ -3307,54 +3325,54 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>30.6</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="H20" t="n">
-        <v>26.1</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="n">
         <v>27</v>
       </c>
-      <c r="Q20" t="n">
-        <v>45</v>
-      </c>
       <c r="R20" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3362,7 +3380,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3382,7 +3400,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3390,17 +3408,15 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>32</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3446,99 +3462,95 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>30.6</v>
       </c>
       <c r="G21" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="H21" t="n">
-        <v>30.2</v>
+        <v>26.1</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="R21" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>14</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>18</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -3557,7 +3569,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3567,17 +3579,17 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -3587,110 +3599,106 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="H22" t="n">
-        <v>25.6</v>
+        <v>30.2</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>12</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z22" t="n">
-        <v>40</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB22" t="n">
-        <v>38</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -3704,54 +3712,54 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3760,103 +3768,113 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F23" t="n">
-        <v>29.4</v>
+        <v>28.2</v>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="H23" t="n">
-        <v>34.6</v>
+        <v>25.6</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
-        <v>8</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
       <c r="N23" t="n">
+        <v>45</v>
+      </c>
+      <c r="O23" t="n">
         <v>24</v>
       </c>
-      <c r="O23" t="n">
-        <v>48</v>
-      </c>
       <c r="P23" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>43</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
         <v>38</v>
       </c>
-      <c r="Q23" t="n">
-        <v>23</v>
-      </c>
-      <c r="R23" t="n">
-        <v>14</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
-        <v>43</v>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD23" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -3871,29 +3889,29 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3902,49 +3920,45 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>32.8</v>
+        <v>29.4</v>
       </c>
       <c r="G24" t="n">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O24" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P24" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q24" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R24" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3952,14 +3966,10 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V24" t="n">
-        <v>13</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>@</t>
@@ -3967,7 +3977,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3976,78 +3986,74 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>43</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>30</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -4062,75 +4068,75 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22.8</v>
+        <v>32.8</v>
       </c>
       <c r="G25" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="H25" t="n">
-        <v>27.9</v>
+        <v>34</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
         <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O25" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P25" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R25" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-2.5</v>
+        <v>-0.9</v>
       </c>
       <c r="U25" t="n">
-        <v>-6.3</v>
+        <v>0.9</v>
       </c>
       <c r="V25" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -4159,17 +4165,17 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4179,7 +4185,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -4196,70 +4202,78 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F26" t="n">
-        <v>27.6</v>
+        <v>22.8</v>
       </c>
       <c r="G26" t="n">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="H26" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="I26" t="n">
         <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>14</v>
+      </c>
+      <c r="P26" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>23</v>
+      </c>
+      <c r="R26" t="n">
         <v>25</v>
       </c>
-      <c r="O26" t="n">
-        <v>27</v>
-      </c>
-      <c r="P26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>37</v>
-      </c>
-      <c r="R26" t="n">
-        <v>36</v>
-      </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7</v>
+      </c>
       <c r="W26" t="inlineStr">
         <is>
           <t>vs</t>
@@ -4267,7 +4281,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4276,7 +4290,7 @@
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -4300,12 +4314,12 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4315,7 +4329,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -4325,7 +4339,7 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
@@ -4335,19 +4349,19 @@
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -4358,22 +4372,22 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>19.8</v>
+        <v>27.6</v>
       </c>
       <c r="G27" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="H27" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
@@ -4382,25 +4396,19 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O27" t="n">
-        <v>24</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="P27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>37</v>
+      </c>
+      <c r="R27" t="n">
+        <v>36</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4408,7 +4416,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4419,7 +4427,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4452,22 +4460,22 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4477,7 +4485,7 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
@@ -4487,19 +4495,19 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -4508,81 +4516,79 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="G28" t="n">
-        <v>20.7</v>
+        <v>22.9</v>
       </c>
       <c r="H28" t="n">
-        <v>17.9</v>
+        <v>27.8</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O28" t="n">
-        <v>9</v>
-      </c>
-      <c r="P28" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>9</v>
-      </c>
-      <c r="R28" t="n">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U28" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="V28" t="n">
-        <v>12</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -4611,7 +4617,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4621,7 +4627,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -4631,7 +4637,7 @@
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
@@ -4641,66 +4647,70 @@
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F29" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="G29" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="H29" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q29" t="n">
         <v>9</v>
       </c>
       <c r="R29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -4708,10 +4718,14 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12</v>
+      </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>@</t>
@@ -4719,7 +4733,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4728,23 +4742,27 @@
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD29" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -4753,155 +4771,149 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
           <t>SAS</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>20.8</v>
       </c>
       <c r="G30" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="H30" t="n">
-        <v>20.7</v>
+        <v>18.5</v>
       </c>
       <c r="I30" t="n">
         <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O30" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>20</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD30" t="n">
+        <v>32</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4911,17 +4923,17 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -4931,19 +4943,19 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4952,51 +4964,45 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>18.8</v>
       </c>
       <c r="H31" t="n">
-        <v>17.8</v>
+        <v>20.7</v>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N31" t="n">
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
         <v>14</v>
       </c>
-      <c r="Q31" t="n">
-        <v>9</v>
-      </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5004,14 +5010,10 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="V31" t="n">
-        <v>4</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>vs</t>
@@ -5019,32 +5021,38 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z31" t="n">
-        <v>9</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB31" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD31" t="n">
-        <v>33</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -5053,158 +5061,150 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Gordon Hayward</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F32" t="n">
-        <v>23.6</v>
+        <v>8.6</v>
       </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>38.8</v>
+        <v>17.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O32" t="n">
+        <v>9</v>
+      </c>
+      <c r="P32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>9</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>2</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD32" t="n">
+        <v>33</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -5213,29 +5213,29 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
       <c r="AK32" t="inlineStr">
         <is>
           <t>@</t>
@@ -5243,19 +5243,19 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5270,28 +5270,28 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>25.4</v>
+        <v>23.6</v>
       </c>
       <c r="G33" t="n">
-        <v>35</v>
+        <v>38.9</v>
       </c>
       <c r="H33" t="n">
-        <v>37.6</v>
+        <v>38.8</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -5313,29 +5313,27 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R33" t="n">
+        <v>12</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-0.8</v>
+        <v>-4.5</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5375,17 +5373,17 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5395,29 +5393,29 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5427,33 +5425,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>33.2</v>
+        <v>25.4</v>
       </c>
       <c r="G34" t="n">
-        <v>33.1</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
-        <v>34.1</v>
+        <v>37.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -5486,7 +5484,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.2</v>
+        <v>-0.8</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -5497,32 +5495,38 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z34" t="n">
-        <v>11</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD34" t="n">
-        <v>51</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -5531,7 +5535,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5541,7 +5545,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
@@ -5551,29 +5555,29 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5583,33 +5587,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>27.8</v>
+        <v>33.2</v>
       </c>
       <c r="G35" t="n">
-        <v>31.1</v>
+        <v>33.1</v>
       </c>
       <c r="H35" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -5642,7 +5646,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -5653,7 +5657,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -5662,36 +5666,32 @@
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD35" t="n">
+        <v>51</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -5701,39 +5701,39 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5743,33 +5743,33 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>32</v>
+        <v>27.8</v>
       </c>
       <c r="G36" t="n">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="H36" t="n">
-        <v>27.4</v>
+        <v>35</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
-        <v>5</v>
-      </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>0.3</v>
+        <v>-2.2</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -5822,32 +5822,36 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB36" t="n">
-        <v>23</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD36" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -5857,169 +5861,165 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>32</v>
+      </c>
+      <c r="G37" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>D'Angelo Russell</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H37" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>35</v>
-      </c>
-      <c r="R37" t="n">
-        <v>7</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V37" t="n">
-        <v>10</v>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
       <c r="AI37" t="inlineStr">
         <is>
           <t>@</t>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
     </row>

--- a/Excel/TI/Mon_TI_2024_03_27.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_27.xlsx
@@ -628,15 +628,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>G</t>
@@ -644,13 +648,13 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>38.6</v>
+        <v>42.2</v>
       </c>
       <c r="G2" t="n">
-        <v>37.9</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="n">
-        <v>32.1</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
@@ -668,19 +672,19 @@
         <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O2" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -688,7 +692,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -699,7 +703,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -708,7 +712,7 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -732,12 +736,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -747,17 +751,17 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -767,22 +771,26 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Dejounte Murray</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>G</t>
@@ -790,13 +798,13 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>42.2</v>
+        <v>35.6</v>
       </c>
       <c r="G3" t="n">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
         <v>14</v>
@@ -805,36 +813,36 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" t="n">
         <v>33</v>
       </c>
-      <c r="O3" t="n">
-        <v>29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>50</v>
-      </c>
-      <c r="R3" t="n">
-        <v>56</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -845,75 +853,75 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>DET</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>TOR</t>
         </is>
       </c>
     </row>
@@ -936,10 +944,10 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="G4" t="n">
-        <v>34.2</v>
+        <v>35.1</v>
       </c>
       <c r="H4" t="n">
         <v>35.3</v>
@@ -954,25 +962,25 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
+        <v>41</v>
+      </c>
+      <c r="O4" t="n">
         <v>37</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>28</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>46</v>
-      </c>
-      <c r="R4" t="n">
-        <v>38</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1228,16 +1236,16 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>37.8</v>
+        <v>38.2</v>
       </c>
       <c r="G6" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="H6" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -1246,33 +1254,33 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="n">
+        <v>38</v>
+      </c>
+      <c r="O6" t="n">
         <v>17</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>55</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>46</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>35</v>
       </c>
-      <c r="R6" t="n">
-        <v>36</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1368,7 +1376,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Questionable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1387,7 +1395,7 @@
         <v>31.3</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1399,26 +1407,28 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>21</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>34</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>22</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1514,48 +1524,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>31.2</v>
       </c>
       <c r="G8" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="H8" t="n">
-        <v>30.8</v>
+        <v>25.1</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1566,13 +1572,17 @@
         <v>35</v>
       </c>
       <c r="P8" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>45</v>
-      </c>
-      <c r="R8" t="n">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1580,14 +1590,10 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>11</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1595,7 +1601,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1604,7 +1610,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1612,7 +1618,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1620,7 +1626,7 @@
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1629,52 +1635,56 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>F</t>
@@ -1682,49 +1692,47 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>31.2</v>
+        <v>34.6</v>
       </c>
       <c r="G9" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="H9" t="n">
-        <v>25.1</v>
+        <v>35.1</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>35</v>
-      </c>
-      <c r="O9" t="n">
-        <v>28</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>21</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R9" t="n">
+        <v>34</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1732,7 +1740,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-0.1</v>
+        <v>3.2</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1743,7 +1751,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1752,7 +1760,7 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1760,15 +1768,17 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1777,17 +1787,17 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1797,29 +1807,29 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1828,100 +1838,108 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="G10" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="H10" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>64</v>
+      </c>
+      <c r="R10" t="n">
+        <v>45</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
         <v>8</v>
       </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>24</v>
-      </c>
-      <c r="O10" t="n">
-        <v>31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>50</v>
-      </c>
-      <c r="R10" t="n">
-        <v>32</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1931,39 +1949,39 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1977,37 +1995,41 @@
         <v>30.4</v>
       </c>
       <c r="G11" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="H11" t="n">
-        <v>30.7</v>
+        <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O11" t="n">
-        <v>37</v>
-      </c>
-      <c r="P11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -2016,39 +2038,41 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2062,12 +2086,12 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2077,7 +2101,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2087,84 +2111,84 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>33.4</v>
       </c>
       <c r="G12" t="n">
         <v>31.5</v>
       </c>
       <c r="H12" t="n">
-        <v>24.9</v>
+        <v>30.5</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O12" t="n">
+        <v>24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>32</v>
+      </c>
+      <c r="R12" t="n">
         <v>50</v>
       </c>
-      <c r="P12" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>35</v>
-      </c>
-      <c r="R12" t="n">
-        <v>23</v>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2175,16 +2199,16 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2192,7 +2216,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2206,24 +2230,24 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2231,29 +2255,29 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2264,91 +2288,79 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>32.4</v>
+        <v>28.8</v>
       </c>
       <c r="G13" t="n">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>30.4</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
       <c r="N13" t="n">
-        <v>26</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>37</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>57</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2362,12 +2374,12 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2377,7 +2389,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2387,84 +2399,82 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DET</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>D'Angelo Russell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>30.4</v>
       </c>
       <c r="G14" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="H14" t="n">
-        <v>31.3</v>
+        <v>26.5</v>
       </c>
       <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>47</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
         <v>13</v>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>26</v>
-      </c>
       <c r="Q14" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="R14" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2472,10 +2482,14 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+        <v>-1.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10</v>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>@</t>
@@ -2483,7 +2497,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2492,7 +2506,7 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2521,37 +2535,37 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
           <t>WAS</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>MEM</t>
         </is>
       </c>
     </row>
@@ -2578,13 +2592,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="G15" t="n">
         <v>29.9</v>
       </c>
       <c r="H15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="I15" t="n">
         <v>15</v>
@@ -2602,19 +2616,19 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
+        <v>30</v>
+      </c>
+      <c r="O15" t="n">
         <v>20</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>11</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>45</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>18</v>
-      </c>
-      <c r="R15" t="n">
-        <v>32</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2625,7 +2639,7 @@
         <v>-0.4</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -2712,60 +2726,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Probable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>24.4</v>
+        <v>31.4</v>
       </c>
       <c r="G16" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="H16" t="n">
-        <v>26.2</v>
+        <v>24.8</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N16" t="n">
+        <v>20</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
         <v>50</v>
@@ -2774,30 +2782,26 @@
         <v>35</v>
       </c>
       <c r="R16" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>10</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2806,17 +2810,15 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>33</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2830,32 +2832,32 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -2865,95 +2867,93 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Austin Reaves</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F17" t="n">
-        <v>24.2</v>
+        <v>30.6</v>
       </c>
       <c r="G17" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="H17" t="n">
-        <v>34.7</v>
+        <v>26</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>55</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="P17" t="n">
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>34</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+        <v>-0.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>12</v>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2962,15 +2962,15 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -2999,17 +2999,17 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -3019,25 +3019,25 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3045,40 +3045,40 @@
         <v>26.8</v>
       </c>
       <c r="G18" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="H18" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P18" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="Q18" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="R18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3106,56 +3106,52 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>33</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>32</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3165,7 +3161,7 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -3188,13 +3184,13 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>24.4</v>
+        <v>25.8</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
@@ -3212,29 +3208,27 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
+        <v>24</v>
+      </c>
+      <c r="O19" t="n">
         <v>23</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>24</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>39</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>19</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3325,54 +3319,60 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>26</v>
       </c>
-      <c r="G20" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>28</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>17</v>
-      </c>
-      <c r="O20" t="n">
-        <v>41</v>
-      </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q20" t="n">
         <v>27</v>
       </c>
       <c r="R20" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3408,15 +3408,17 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD20" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3462,15 +3464,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>G</t>
@@ -3478,43 +3484,43 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>30.6</v>
+        <v>24.4</v>
       </c>
       <c r="G21" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="H21" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O21" t="n">
         <v>26</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="R21" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3522,7 +3528,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3533,7 +3539,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3542,15 +3548,17 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB21" t="n">
-        <v>18</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -3564,32 +3572,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -3599,36 +3607,36 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>33.8</v>
       </c>
       <c r="G22" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="H22" t="n">
-        <v>30.2</v>
+        <v>34.6</v>
       </c>
       <c r="I22" t="n">
         <v>14</v>
@@ -3637,78 +3645,72 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="Q22" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="R22" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>32</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>43</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>30</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3717,7 +3719,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3727,17 +3729,17 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -3747,110 +3749,104 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>28.2</v>
+        <v>21.4</v>
       </c>
       <c r="G23" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="H23" t="n">
-        <v>25.6</v>
+        <v>29.9</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O23" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R23" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>12</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
-        <v>38</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -3864,54 +3860,54 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3920,45 +3916,49 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F24" t="n">
-        <v>29.4</v>
+        <v>28.2</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="H24" t="n">
-        <v>34.6</v>
+        <v>33.7</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P24" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R24" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3966,10 +3966,14 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>13</v>
+      </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>@</t>
@@ -3977,7 +3981,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3986,74 +3990,78 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD24" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -4068,75 +4076,75 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>32.8</v>
+        <v>20.4</v>
       </c>
       <c r="G25" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>27.6</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R25" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-0.9</v>
+        <v>-2.7</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9</v>
+        <v>-6</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -4165,17 +4173,17 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4185,7 +4193,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -4202,63 +4210,59 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>22.8</v>
+        <v>27.6</v>
       </c>
       <c r="G26" t="n">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="H26" t="n">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O26" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P26" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q26" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="R26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4266,14 +4270,10 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>7</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
           <t>vs</t>
@@ -4281,67 +4281,67 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z26" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
       <c r="AK26" t="inlineStr">
         <is>
           <t>@</t>
@@ -4349,19 +4349,19 @@
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NOP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -4372,22 +4372,22 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>27.6</v>
+        <v>19.4</v>
       </c>
       <c r="G27" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="H27" t="n">
-        <v>28.9</v>
+        <v>27.5</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
@@ -4396,19 +4396,23 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>37</v>
-      </c>
-      <c r="R27" t="n">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4416,7 +4420,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4427,7 +4431,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4460,22 +4464,22 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4485,7 +4489,7 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
@@ -4495,120 +4499,110 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>19.8</v>
+        <v>28.2</v>
       </c>
       <c r="G28" t="n">
-        <v>22.9</v>
+        <v>21.8</v>
       </c>
       <c r="H28" t="n">
-        <v>27.8</v>
+        <v>19</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O28" t="n">
-        <v>24</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="P28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>12</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>32</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -4617,37 +4611,37 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
     </row>
@@ -4674,13 +4668,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="H29" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="I29" t="n">
         <v>11</v>
@@ -4698,30 +4692,30 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="n">
         <v>23</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>9</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>42</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>9</v>
       </c>
-      <c r="R29" t="n">
-        <v>19</v>
-      </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="V29" t="n">
         <v>12</v>
@@ -4808,112 +4802,116 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>20.8</v>
-      </c>
-      <c r="G30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H30" t="n">
-        <v>18.5</v>
       </c>
       <c r="I30" t="n">
         <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
         <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD30" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4923,17 +4921,17 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -4943,85 +4941,93 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="G31" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H31" t="n">
         <v>18.8</v>
       </c>
-      <c r="H31" t="n">
-        <v>20.7</v>
-      </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>23</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>14</v>
-      </c>
-      <c r="R31" t="n">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>-0.4</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5056,32 +5062,32 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
@@ -5091,7 +5097,7 @@
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
@@ -5118,13 +5124,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="H32" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="I32" t="n">
         <v>14</v>
@@ -5141,33 +5147,33 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
+      <c r="N32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>9</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>14</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>9</v>
       </c>
-      <c r="R32" t="n">
-        <v>11</v>
-      </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.4</v>
+        <v>-5.8</v>
       </c>
       <c r="V32" t="n">
         <v>4</v>
@@ -5279,13 +5285,13 @@
         <v>38.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -5313,8 +5319,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>12</v>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5601,7 +5609,7 @@
         <v>34.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -5613,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -5888,12 +5896,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5903,7 +5911,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -5911,22 +5919,22 @@
         <v>32</v>
       </c>
       <c r="G37" t="n">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="H37" t="n">
-        <v>27.4</v>
+        <v>31.3</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -5946,68 +5954,68 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q37" t="n">
+        <v>26</v>
+      </c>
+      <c r="R37" t="n">
+        <v>16</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB37" t="n">
-        <v>23</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD37" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6017,7 +6025,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -6027,7 +6035,7 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
@@ -6037,19 +6045,19 @@
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6064,25 +6072,25 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G38" t="n">
-        <v>26.3</v>
+        <v>30.3</v>
       </c>
       <c r="H38" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="I38" t="n">
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6114,72 +6122,66 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>-4.1</v>
+        <v>0.3</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>30</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD38" t="n">
+        <v>8</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -6189,7 +6191,7 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
@@ -6199,19 +6201,19 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6221,21 +6223,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>26.3</v>
       </c>
       <c r="H39" t="n">
-        <v>18.7</v>
+        <v>27.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>3</v>
@@ -6244,10 +6246,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -6280,7 +6282,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-0.3</v>
+        <v>-4.1</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -6291,7 +6293,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -6331,37 +6333,37 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
           <t>ORL</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
